--- a/MID/Create-InstallLocation/LocInst.xlsx
+++ b/MID/Create-InstallLocation/LocInst.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mao8ct\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\MID\Create-InstallLocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B63878A-EA96-44EF-BED0-565DD93A41AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A7BCF3-E026-4A00-8C1D-804907D9EAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{841C4129-0CB3-4066-B34E-E8845E3509BE}"/>
   </bookViews>
@@ -36,12 +36,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Norma</t>
   </si>
   <si>
     <t>Quantidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4729108508 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4328700313 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4729106784 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4729107242 </t>
   </si>
 </sst>
 </file>
@@ -106,13 +118,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -431,13 +446,12 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -450,48 +464,47 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>4718301815</v>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>4718301805</v>
+      <c r="A3" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>4718301819</v>
+      <c r="A4" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4718301758</v>
+      <c r="A5" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4718301759</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2:A5" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/MID/Create-InstallLocation/LocInst.xlsx
+++ b/MID/Create-InstallLocation/LocInst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\MID\Create-InstallLocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A7BCF3-E026-4A00-8C1D-804907D9EAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B65208-55E7-41FE-BE06-4E17E0EB1AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{841C4129-0CB3-4066-B34E-E8845E3509BE}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,7 +468,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -476,7 +476,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -484,7 +484,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -492,7 +492,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">

--- a/MID/Create-InstallLocation/LocInst.xlsx
+++ b/MID/Create-InstallLocation/LocInst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\MID\Create-InstallLocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B65208-55E7-41FE-BE06-4E17E0EB1AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA62530A-2CCF-46F3-B5D1-6997FC26727E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{841C4129-0CB3-4066-B34E-E8845E3509BE}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,7 +476,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/MID/Create-InstallLocation/LocInst.xlsx
+++ b/MID/Create-InstallLocation/LocInst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\MID\Create-InstallLocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA62530A-2CCF-46F3-B5D1-6997FC26727E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03ADAA82-E3DD-4B60-994B-7C5EEAB96BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{841C4129-0CB3-4066-B34E-E8845E3509BE}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,7 +476,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -484,7 +484,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">

--- a/MID/Create-InstallLocation/LocInst.xlsx
+++ b/MID/Create-InstallLocation/LocInst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\MID\Create-InstallLocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03ADAA82-E3DD-4B60-994B-7C5EEAB96BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF88527-F73D-4664-861B-0F59CEF3AB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{841C4129-0CB3-4066-B34E-E8845E3509BE}"/>
   </bookViews>
@@ -484,7 +484,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">

--- a/MID/Create-InstallLocation/LocInst.xlsx
+++ b/MID/Create-InstallLocation/LocInst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\MID\Create-InstallLocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF88527-F73D-4664-861B-0F59CEF3AB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D47BA3-F870-4044-A26A-8E5FFAA0E81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{841C4129-0CB3-4066-B34E-E8845E3509BE}"/>
   </bookViews>
@@ -445,9 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D997F1F-30FE-4A2A-B694-A9178A4FC344}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -468,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -476,7 +474,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -484,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -492,7 +490,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
